--- a/data/pca/factorExposure/factorExposure_2019-03-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1196070253842902</v>
+        <v>0.07679223166632636</v>
       </c>
       <c r="C2">
-        <v>0.005773354223084313</v>
+        <v>-0.0360796904550608</v>
       </c>
       <c r="D2">
-        <v>-0.05353303259464602</v>
+        <v>-0.01171704092360451</v>
       </c>
       <c r="E2">
-        <v>-0.1169433660043327</v>
+        <v>0.04116945655819093</v>
       </c>
       <c r="F2">
-        <v>-0.1105686209709476</v>
+        <v>0.1404380585851763</v>
       </c>
       <c r="G2">
-        <v>0.0125416124324626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1033811592794002</v>
+      </c>
+      <c r="H2">
+        <v>-0.0573072965256251</v>
+      </c>
+      <c r="I2">
+        <v>-0.04028748286674833</v>
+      </c>
+      <c r="J2">
+        <v>-0.06441936609682022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2230801359602422</v>
+        <v>0.1678439578155074</v>
       </c>
       <c r="C3">
-        <v>0.1308184994591055</v>
+        <v>-0.09303029607448747</v>
       </c>
       <c r="D3">
-        <v>0.03528078796958515</v>
+        <v>0.03830679345747742</v>
       </c>
       <c r="E3">
-        <v>-0.3281281723754473</v>
+        <v>-0.007804442027238039</v>
       </c>
       <c r="F3">
-        <v>-0.02549406996223324</v>
+        <v>0.3744640046254459</v>
       </c>
       <c r="G3">
-        <v>0.1098229217489198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.0879624500765024</v>
+      </c>
+      <c r="H3">
+        <v>-0.2730153139438804</v>
+      </c>
+      <c r="I3">
+        <v>-0.2259491161363255</v>
+      </c>
+      <c r="J3">
+        <v>-0.2153940287806583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09569685108996141</v>
+        <v>0.07534623821639222</v>
       </c>
       <c r="C4">
-        <v>0.04135022570679254</v>
+        <v>-0.03556377331451331</v>
       </c>
       <c r="D4">
-        <v>-0.02856193288890932</v>
+        <v>0.0282877058152878</v>
       </c>
       <c r="E4">
-        <v>-0.07490234513248531</v>
+        <v>0.03814723471722725</v>
       </c>
       <c r="F4">
-        <v>-0.03796149293067008</v>
+        <v>0.0816131880464806</v>
       </c>
       <c r="G4">
-        <v>0.02903805618913744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04646576998919965</v>
+      </c>
+      <c r="H4">
+        <v>-0.02300806306102737</v>
+      </c>
+      <c r="I4">
+        <v>-0.04680935898891272</v>
+      </c>
+      <c r="J4">
+        <v>-0.05365197792532606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01794706544617516</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.008313806913430073</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009685683323764661</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005731382015130042</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.00247516661533255</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0213417808186883</v>
+      </c>
+      <c r="H6">
+        <v>-0.0002687631619888466</v>
+      </c>
+      <c r="I6">
+        <v>0.01157664478566599</v>
+      </c>
+      <c r="J6">
+        <v>-0.003281898659086054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04203471942873846</v>
+        <v>0.03516849112385737</v>
       </c>
       <c r="C7">
-        <v>0.01185432416346475</v>
+        <v>-0.003672283428846611</v>
       </c>
       <c r="D7">
-        <v>-0.03531604522340752</v>
+        <v>0.03983060179378523</v>
       </c>
       <c r="E7">
-        <v>-0.07421274683274037</v>
+        <v>0.02912721414646951</v>
       </c>
       <c r="F7">
-        <v>0.05273737311817544</v>
+        <v>0.05570348325216635</v>
       </c>
       <c r="G7">
-        <v>-0.00928915381164213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006654461145448979</v>
+      </c>
+      <c r="H7">
+        <v>-0.04507593379911878</v>
+      </c>
+      <c r="I7">
+        <v>-0.00908438108241736</v>
+      </c>
+      <c r="J7">
+        <v>-0.05397388429263219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04298960230085522</v>
+        <v>0.03112722652690059</v>
       </c>
       <c r="C8">
-        <v>0.05133820381170895</v>
+        <v>-0.04144819846684709</v>
       </c>
       <c r="D8">
-        <v>-0.007160597267404224</v>
+        <v>0.03071837208787813</v>
       </c>
       <c r="E8">
-        <v>-0.06798529249858014</v>
+        <v>0.01870943647328284</v>
       </c>
       <c r="F8">
-        <v>-0.007414603804858025</v>
+        <v>0.07257496148061986</v>
       </c>
       <c r="G8">
-        <v>0.01237292179039122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02123585027402305</v>
+      </c>
+      <c r="H8">
+        <v>-0.04357514413824101</v>
+      </c>
+      <c r="I8">
+        <v>-0.04806062688425678</v>
+      </c>
+      <c r="J8">
+        <v>-0.05498700934427348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08375398378193134</v>
+        <v>0.06237153936663543</v>
       </c>
       <c r="C9">
-        <v>0.03819825015413748</v>
+        <v>-0.0314477641990297</v>
       </c>
       <c r="D9">
-        <v>-0.03571580026496388</v>
+        <v>0.03195696380425784</v>
       </c>
       <c r="E9">
-        <v>-0.05867435029743202</v>
+        <v>0.03376049288194106</v>
       </c>
       <c r="F9">
-        <v>-0.02505169051786715</v>
+        <v>0.08180286863113886</v>
       </c>
       <c r="G9">
-        <v>0.04615913907139237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04261777374354379</v>
+      </c>
+      <c r="H9">
+        <v>-0.02047257808738246</v>
+      </c>
+      <c r="I9">
+        <v>-0.02395425482737593</v>
+      </c>
+      <c r="J9">
+        <v>-0.0355606318262645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.009143589464629343</v>
+        <v>0.02468755102160009</v>
       </c>
       <c r="C10">
-        <v>-0.157055557256723</v>
+        <v>0.1384041142470148</v>
       </c>
       <c r="D10">
-        <v>0.02887552662967338</v>
+        <v>-0.06848000280833826</v>
       </c>
       <c r="E10">
-        <v>-0.07676344292691288</v>
+        <v>-0.02635420283437359</v>
       </c>
       <c r="F10">
-        <v>-0.01854528166831574</v>
+        <v>0.07246249966102203</v>
       </c>
       <c r="G10">
-        <v>-0.01981012232359159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02366903551499745</v>
+      </c>
+      <c r="H10">
+        <v>-0.0001231864522453951</v>
+      </c>
+      <c r="I10">
+        <v>-0.1045284615858309</v>
+      </c>
+      <c r="J10">
+        <v>0.02521628456386511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05712758468194572</v>
+        <v>0.04986713019388588</v>
       </c>
       <c r="C11">
-        <v>0.01317738242836439</v>
+        <v>-0.02818543820723206</v>
       </c>
       <c r="D11">
-        <v>0.006333821634858491</v>
+        <v>0.003325069405203962</v>
       </c>
       <c r="E11">
-        <v>-0.04300688849849881</v>
+        <v>0.007936747763048924</v>
       </c>
       <c r="F11">
-        <v>-0.005599703730416827</v>
+        <v>0.04043077130934431</v>
       </c>
       <c r="G11">
-        <v>-0.02132565680787542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006506282584991117</v>
+      </c>
+      <c r="H11">
+        <v>-0.000992258855868436</v>
+      </c>
+      <c r="I11">
+        <v>0.002401451281375375</v>
+      </c>
+      <c r="J11">
+        <v>-0.04548574086521557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04254538010275823</v>
+        <v>0.04596463155216998</v>
       </c>
       <c r="C12">
-        <v>0.01829890011746877</v>
+        <v>-0.02117433053473176</v>
       </c>
       <c r="D12">
-        <v>0.002667582767661629</v>
+        <v>0.01230950863845634</v>
       </c>
       <c r="E12">
-        <v>-0.03115109817456437</v>
+        <v>0.01096241144390826</v>
       </c>
       <c r="F12">
-        <v>0.00402689732797553</v>
+        <v>0.01811744573626986</v>
       </c>
       <c r="G12">
-        <v>0.0005686215372007823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001621109025978066</v>
+      </c>
+      <c r="H12">
+        <v>-0.00307700705182178</v>
+      </c>
+      <c r="I12">
+        <v>0.006105781928223615</v>
+      </c>
+      <c r="J12">
+        <v>-0.03042038364052153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06391819078518821</v>
+        <v>0.04364267808459567</v>
       </c>
       <c r="C13">
-        <v>0.02549457672889894</v>
+        <v>-0.03013813163139975</v>
       </c>
       <c r="D13">
-        <v>0.004795689840015849</v>
+        <v>-0.004956762692760812</v>
       </c>
       <c r="E13">
-        <v>-0.1087116075521698</v>
+        <v>0.009066737894390314</v>
       </c>
       <c r="F13">
-        <v>-0.01421092681743035</v>
+        <v>0.1043932210706102</v>
       </c>
       <c r="G13">
-        <v>-0.004981975264904751</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02022299195143773</v>
+      </c>
+      <c r="H13">
+        <v>-0.04577037656806737</v>
+      </c>
+      <c r="I13">
+        <v>-0.02155622738336927</v>
+      </c>
+      <c r="J13">
+        <v>-0.05739429275148748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03434772768222641</v>
+        <v>0.02906800632063167</v>
       </c>
       <c r="C14">
-        <v>0.01631592607406204</v>
+        <v>-0.01534747785740447</v>
       </c>
       <c r="D14">
-        <v>-0.02765183692963124</v>
+        <v>0.01123536766401052</v>
       </c>
       <c r="E14">
-        <v>-0.02732139375830046</v>
+        <v>0.02602628483660461</v>
       </c>
       <c r="F14">
-        <v>-0.009610323705608879</v>
+        <v>0.04061010605427647</v>
       </c>
       <c r="G14">
-        <v>-0.03932596924547885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02851695819029596</v>
+      </c>
+      <c r="H14">
+        <v>-0.05105856842230493</v>
+      </c>
+      <c r="I14">
+        <v>-0.01320317861017616</v>
+      </c>
+      <c r="J14">
+        <v>-0.01427366240503656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04582946031176656</v>
+        <v>0.0441767348455788</v>
       </c>
       <c r="C16">
-        <v>0.02860279327994263</v>
+        <v>-0.03322774750291078</v>
       </c>
       <c r="D16">
-        <v>0.009946845401706558</v>
+        <v>0.01200437060318383</v>
       </c>
       <c r="E16">
-        <v>-0.03484596440459981</v>
+        <v>0.004865218489776296</v>
       </c>
       <c r="F16">
-        <v>0.006953721702741222</v>
+        <v>0.0340331768736451</v>
       </c>
       <c r="G16">
-        <v>-0.007639055467421883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.005517683279481379</v>
+      </c>
+      <c r="H16">
+        <v>-0.008304148699238699</v>
+      </c>
+      <c r="I16">
+        <v>0.002378584775481426</v>
+      </c>
+      <c r="J16">
+        <v>-0.03902701640356863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05231660762975446</v>
+        <v>0.04810107996118279</v>
       </c>
       <c r="C19">
-        <v>0.03682996480642312</v>
+        <v>-0.04118893803839848</v>
       </c>
       <c r="D19">
-        <v>0.002837613868323766</v>
+        <v>0.0149174882816688</v>
       </c>
       <c r="E19">
-        <v>-0.07581068399382276</v>
+        <v>0.01831847727668223</v>
       </c>
       <c r="F19">
-        <v>0.01852089239220035</v>
+        <v>0.08190880193606374</v>
       </c>
       <c r="G19">
-        <v>-0.02957440194375136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.009564603861590051</v>
+      </c>
+      <c r="H19">
+        <v>-0.08066079464152835</v>
+      </c>
+      <c r="I19">
+        <v>-0.04677846963205341</v>
+      </c>
+      <c r="J19">
+        <v>-0.04301771084184153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0373549596224538</v>
+        <v>0.01982267884804478</v>
       </c>
       <c r="C20">
-        <v>0.04162809408810662</v>
+        <v>-0.02636607933887669</v>
       </c>
       <c r="D20">
-        <v>-0.01711942380517851</v>
+        <v>0.01794859012398642</v>
       </c>
       <c r="E20">
-        <v>-0.06462273190811307</v>
+        <v>0.01971461195636364</v>
       </c>
       <c r="F20">
-        <v>0.01274626060174072</v>
+        <v>0.06696115902378476</v>
       </c>
       <c r="G20">
-        <v>-0.01519058642088831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01312757006066708</v>
+      </c>
+      <c r="H20">
+        <v>-0.06872013307258351</v>
+      </c>
+      <c r="I20">
+        <v>-0.03473034083014057</v>
+      </c>
+      <c r="J20">
+        <v>-0.07447045943737596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.04008838198723601</v>
+        <v>0.02656561861657944</v>
       </c>
       <c r="C21">
-        <v>0.03480105053231812</v>
+        <v>-0.02629859275449844</v>
       </c>
       <c r="D21">
-        <v>-0.007076230166915961</v>
+        <v>0.02673903813780046</v>
       </c>
       <c r="E21">
-        <v>-0.09485428097167029</v>
+        <v>0.008146964700292188</v>
       </c>
       <c r="F21">
-        <v>-0.04794340479701896</v>
+        <v>0.076405976951815</v>
       </c>
       <c r="G21">
-        <v>-0.02605995002178199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03400919842853308</v>
+      </c>
+      <c r="H21">
+        <v>-0.0216933793774953</v>
+      </c>
+      <c r="I21">
+        <v>0.0003292495891821433</v>
+      </c>
+      <c r="J21">
+        <v>-0.03408295375438825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04843713044962224</v>
+        <v>0.04349834710024795</v>
       </c>
       <c r="C24">
-        <v>0.01965631575029711</v>
+        <v>-0.02177903385493461</v>
       </c>
       <c r="D24">
-        <v>0.002833466828556978</v>
+        <v>0.006993977328463586</v>
       </c>
       <c r="E24">
-        <v>-0.0447295121926215</v>
+        <v>0.009791964994601084</v>
       </c>
       <c r="F24">
-        <v>0.00543402377470635</v>
+        <v>0.04092072018963797</v>
       </c>
       <c r="G24">
-        <v>-0.0004247585835889222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.004302808450062942</v>
+      </c>
+      <c r="H24">
+        <v>-0.007056518572744834</v>
+      </c>
+      <c r="I24">
+        <v>-0.000338631504271266</v>
+      </c>
+      <c r="J24">
+        <v>-0.04433205925146385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05098398967055347</v>
+        <v>0.04610097523125652</v>
       </c>
       <c r="C25">
-        <v>0.009657769526446341</v>
+        <v>-0.02152608280080796</v>
       </c>
       <c r="D25">
-        <v>0.004228145805207137</v>
+        <v>0.005718663259336991</v>
       </c>
       <c r="E25">
-        <v>-0.04219400022522683</v>
+        <v>0.008018670467339031</v>
       </c>
       <c r="F25">
-        <v>-0.007308607556978879</v>
+        <v>0.0444195523150611</v>
       </c>
       <c r="G25">
-        <v>-0.009075849048813599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003623910726561182</v>
+      </c>
+      <c r="H25">
+        <v>0.000243525470808532</v>
+      </c>
+      <c r="I25">
+        <v>0.00373830899100038</v>
+      </c>
+      <c r="J25">
+        <v>-0.03817483761369321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01640436281230097</v>
+        <v>0.01658082153269898</v>
       </c>
       <c r="C26">
-        <v>0.02763738025267679</v>
+        <v>-0.02407650292501029</v>
       </c>
       <c r="D26">
-        <v>-0.002063784589148379</v>
+        <v>0.005549626691821512</v>
       </c>
       <c r="E26">
-        <v>-0.03516673037505666</v>
+        <v>0.001223747782609533</v>
       </c>
       <c r="F26">
-        <v>-0.01930093501421511</v>
+        <v>0.04625033125725498</v>
       </c>
       <c r="G26">
-        <v>-0.02712681261940137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02055236059925793</v>
+      </c>
+      <c r="H26">
+        <v>-0.03116992886849624</v>
+      </c>
+      <c r="I26">
+        <v>-0.003550655596727396</v>
+      </c>
+      <c r="J26">
+        <v>-0.04015536224906503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1155075787711193</v>
+        <v>0.07801774911225501</v>
       </c>
       <c r="C27">
-        <v>0.03208112485430428</v>
+        <v>-0.02660437515404536</v>
       </c>
       <c r="D27">
-        <v>-0.02252737518564521</v>
+        <v>0.01377958623893111</v>
       </c>
       <c r="E27">
-        <v>-0.09830119289278581</v>
+        <v>0.03363278608400906</v>
       </c>
       <c r="F27">
-        <v>-0.008710277681516197</v>
+        <v>0.06793574788553787</v>
       </c>
       <c r="G27">
-        <v>0.01147177382471657</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01683604152576148</v>
+      </c>
+      <c r="H27">
+        <v>-0.01232043868469269</v>
+      </c>
+      <c r="I27">
+        <v>-0.03001679145946535</v>
+      </c>
+      <c r="J27">
+        <v>-0.03874631510678618</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.009939616585903704</v>
+        <v>0.04181812482918186</v>
       </c>
       <c r="C28">
-        <v>-0.2417460539466178</v>
+        <v>0.216546013771972</v>
       </c>
       <c r="D28">
-        <v>0.0281492853653623</v>
+        <v>-0.09520584137527938</v>
       </c>
       <c r="E28">
-        <v>-0.04979905757120476</v>
+        <v>-0.04231948853061149</v>
       </c>
       <c r="F28">
-        <v>-0.02628215337684932</v>
+        <v>0.05784086746375366</v>
       </c>
       <c r="G28">
-        <v>-0.004536911640177834</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02519817409879146</v>
+      </c>
+      <c r="H28">
+        <v>0.003651520616466019</v>
+      </c>
+      <c r="I28">
+        <v>-0.1525806227039642</v>
+      </c>
+      <c r="J28">
+        <v>0.02410028297788227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0221718208849562</v>
+        <v>0.02284269436828761</v>
       </c>
       <c r="C29">
-        <v>0.02259574082295135</v>
+        <v>-0.01552006210894396</v>
       </c>
       <c r="D29">
-        <v>-0.03165275290426322</v>
+        <v>0.01680527987499441</v>
       </c>
       <c r="E29">
-        <v>-0.02862225318514692</v>
+        <v>0.0270485356785371</v>
       </c>
       <c r="F29">
-        <v>-0.0155059049561831</v>
+        <v>0.03629847216990282</v>
       </c>
       <c r="G29">
-        <v>-0.03093688369992111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02978193824628277</v>
+      </c>
+      <c r="H29">
+        <v>-0.04914576568530079</v>
+      </c>
+      <c r="I29">
+        <v>-0.0063469563064728</v>
+      </c>
+      <c r="J29">
+        <v>-0.009605920815309164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1064532098113808</v>
+        <v>0.09138934145207334</v>
       </c>
       <c r="C30">
-        <v>0.02004609760610432</v>
+        <v>-0.05827747110629808</v>
       </c>
       <c r="D30">
-        <v>-0.02532428044427971</v>
+        <v>-0.01893426109350107</v>
       </c>
       <c r="E30">
-        <v>-0.1092393898183477</v>
+        <v>0.03043610019095326</v>
       </c>
       <c r="F30">
-        <v>0.001506126648737123</v>
+        <v>0.1024262030537061</v>
       </c>
       <c r="G30">
-        <v>-0.03527645800968042</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01527324955961058</v>
+      </c>
+      <c r="H30">
+        <v>-0.02238324285982116</v>
+      </c>
+      <c r="I30">
+        <v>0.007787962811110514</v>
+      </c>
+      <c r="J30">
+        <v>-0.03231523172776094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.06442393937571521</v>
+        <v>0.06335991145186333</v>
       </c>
       <c r="C31">
-        <v>0.02024415556016738</v>
+        <v>-0.02461233642077542</v>
       </c>
       <c r="D31">
-        <v>-0.01707568050552583</v>
+        <v>-0.003053228895419164</v>
       </c>
       <c r="E31">
-        <v>0.01658763658783536</v>
+        <v>0.02266985278955207</v>
       </c>
       <c r="F31">
-        <v>-0.01089259150692067</v>
+        <v>0.002022213927089346</v>
       </c>
       <c r="G31">
-        <v>-0.05962359826936393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04100483569925358</v>
+      </c>
+      <c r="H31">
+        <v>-0.03069796231623008</v>
+      </c>
+      <c r="I31">
+        <v>-0.01343440467523737</v>
+      </c>
+      <c r="J31">
+        <v>-0.01408441184416678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06606727667746286</v>
+        <v>0.0451260824872031</v>
       </c>
       <c r="C32">
-        <v>0.03355520229159067</v>
+        <v>-0.03973039649593532</v>
       </c>
       <c r="D32">
-        <v>-0.01134008060133839</v>
+        <v>0.03140539269226733</v>
       </c>
       <c r="E32">
-        <v>-0.1078310950579583</v>
+        <v>0.02861839987763299</v>
       </c>
       <c r="F32">
-        <v>0.01110412169035163</v>
+        <v>0.08739578560517408</v>
       </c>
       <c r="G32">
-        <v>-0.0307544190992621</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01292801392373814</v>
+      </c>
+      <c r="H32">
+        <v>-0.03934735718483444</v>
+      </c>
+      <c r="I32">
+        <v>-0.03273255708148758</v>
+      </c>
+      <c r="J32">
+        <v>-0.04294861550695257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06669993171631879</v>
+        <v>0.05830587434712401</v>
       </c>
       <c r="C33">
-        <v>0.04310913125283498</v>
+        <v>-0.05424158765358858</v>
       </c>
       <c r="D33">
-        <v>-0.01162572808248991</v>
+        <v>0.001219737822454776</v>
       </c>
       <c r="E33">
-        <v>-0.07172168291456743</v>
+        <v>0.01038734087857526</v>
       </c>
       <c r="F33">
-        <v>-0.0465128044847818</v>
+        <v>0.07815186513013549</v>
       </c>
       <c r="G33">
-        <v>-0.01854567792009472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03521535702955039</v>
+      </c>
+      <c r="H33">
+        <v>-0.03590972461491011</v>
+      </c>
+      <c r="I33">
+        <v>0.0001648876165872804</v>
+      </c>
+      <c r="J33">
+        <v>-0.05414327917171625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04572165391272178</v>
+        <v>0.04575740752559643</v>
       </c>
       <c r="C34">
-        <v>0.01914144880057658</v>
+        <v>-0.02721848213183809</v>
       </c>
       <c r="D34">
-        <v>0.0007398507872093147</v>
+        <v>0.01445861396559629</v>
       </c>
       <c r="E34">
-        <v>-0.02698952208860211</v>
+        <v>0.01509075720631981</v>
       </c>
       <c r="F34">
-        <v>0.004966623955959295</v>
+        <v>0.03132954273850092</v>
       </c>
       <c r="G34">
-        <v>-0.01055309329581886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0001872023858056582</v>
+      </c>
+      <c r="H34">
+        <v>-0.01176534371804312</v>
+      </c>
+      <c r="I34">
+        <v>0.00232364813035703</v>
+      </c>
+      <c r="J34">
+        <v>-0.03458118233370786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.0137165546754464</v>
+        <v>0.01640329907212441</v>
       </c>
       <c r="C36">
-        <v>-0.003820902793045481</v>
+        <v>-0.0003538144999314595</v>
       </c>
       <c r="D36">
-        <v>-0.006394581701182051</v>
+        <v>0.004781316241144596</v>
       </c>
       <c r="E36">
-        <v>-0.02388079517715512</v>
+        <v>0.01009177827567933</v>
       </c>
       <c r="F36">
-        <v>-0.009032230039848084</v>
+        <v>0.02881362887483772</v>
       </c>
       <c r="G36">
-        <v>-0.02313628944240336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02378620948883358</v>
+      </c>
+      <c r="H36">
+        <v>-0.02732029472423259</v>
+      </c>
+      <c r="I36">
+        <v>0.002338812591073127</v>
+      </c>
+      <c r="J36">
+        <v>-0.00442703697610935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05802364927428152</v>
+        <v>0.03601796234453787</v>
       </c>
       <c r="C38">
-        <v>0.01534613823992473</v>
+        <v>-0.01344475095616645</v>
       </c>
       <c r="D38">
-        <v>-0.02622196334878349</v>
+        <v>0.007976110030776551</v>
       </c>
       <c r="E38">
-        <v>-0.03209519554256388</v>
+        <v>0.01317925595776556</v>
       </c>
       <c r="F38">
-        <v>-0.003506477249896043</v>
+        <v>0.05074857106185714</v>
       </c>
       <c r="G38">
-        <v>0.02125237437268939</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.0280520348078455</v>
+      </c>
+      <c r="H38">
+        <v>-0.01276030224463769</v>
+      </c>
+      <c r="I38">
+        <v>0.01137298939360756</v>
+      </c>
+      <c r="J38">
+        <v>-0.005165601722267549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07178611309186682</v>
+        <v>0.05765974328757918</v>
       </c>
       <c r="C39">
-        <v>0.01772399620020852</v>
+        <v>-0.04005277875804369</v>
       </c>
       <c r="D39">
-        <v>-0.003527536631452222</v>
+        <v>0.009646569747480238</v>
       </c>
       <c r="E39">
-        <v>-0.04304978096772503</v>
+        <v>0.01678765832250964</v>
       </c>
       <c r="F39">
-        <v>-0.01804123288270997</v>
+        <v>0.0555353985996308</v>
       </c>
       <c r="G39">
-        <v>-0.01009781907204029</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01670902135321347</v>
+      </c>
+      <c r="H39">
+        <v>-0.001274441883150335</v>
+      </c>
+      <c r="I39">
+        <v>0.02273190817283142</v>
+      </c>
+      <c r="J39">
+        <v>-0.04973094559388874</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07452729068583774</v>
+        <v>0.05762455061333005</v>
       </c>
       <c r="C40">
-        <v>0.04151187120824831</v>
+        <v>-0.0465011338697837</v>
       </c>
       <c r="D40">
-        <v>-0.009871654718568259</v>
+        <v>-0.004735203204805204</v>
       </c>
       <c r="E40">
-        <v>-0.1054156819741068</v>
+        <v>0.0238751649038494</v>
       </c>
       <c r="F40">
-        <v>-0.03062011925134586</v>
+        <v>0.09578007740549789</v>
       </c>
       <c r="G40">
-        <v>0.03047327333143856</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02250242715804583</v>
+      </c>
+      <c r="H40">
+        <v>-0.05228709415663783</v>
+      </c>
+      <c r="I40">
+        <v>-0.03345400014904963</v>
+      </c>
+      <c r="J40">
+        <v>-0.1123404794656556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.00431760837070941</v>
+        <v>0.003888315069634447</v>
       </c>
       <c r="C41">
-        <v>0.01626889266961678</v>
+        <v>-0.01152506378218717</v>
       </c>
       <c r="D41">
-        <v>-0.02477759487311701</v>
+        <v>0.005534276318872655</v>
       </c>
       <c r="E41">
-        <v>-0.0148582069504433</v>
+        <v>0.008631141196897065</v>
       </c>
       <c r="F41">
-        <v>-0.03180240722399365</v>
+        <v>0.01505835044619903</v>
       </c>
       <c r="G41">
-        <v>-0.03345254408948781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03646575220220964</v>
+      </c>
+      <c r="H41">
+        <v>-0.03112966173099887</v>
+      </c>
+      <c r="I41">
+        <v>-0.02461203955929142</v>
+      </c>
+      <c r="J41">
+        <v>-0.007589271718160922</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1434020258089075</v>
+        <v>0.2185433083969982</v>
       </c>
       <c r="C42">
-        <v>0.2167618229920192</v>
+        <v>-0.216215844923734</v>
       </c>
       <c r="D42">
-        <v>0.9265444633062342</v>
+        <v>0.02808833092217546</v>
       </c>
       <c r="E42">
-        <v>0.08850278909647609</v>
+        <v>-0.9239223475942144</v>
       </c>
       <c r="F42">
-        <v>0.03921683591523519</v>
+        <v>-0.1449332771569772</v>
       </c>
       <c r="G42">
-        <v>-0.08395257817803635</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.005071260635989031</v>
+      </c>
+      <c r="H42">
+        <v>-0.0008781400572307476</v>
+      </c>
+      <c r="I42">
+        <v>-0.05850089481914332</v>
+      </c>
+      <c r="J42">
+        <v>-0.01961399044925157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.005653427440071034</v>
+        <v>0.006053184244110015</v>
       </c>
       <c r="C43">
-        <v>0.01877063859326499</v>
+        <v>-0.01491996689822194</v>
       </c>
       <c r="D43">
-        <v>-0.0170314891598231</v>
+        <v>0.0040823548160746</v>
       </c>
       <c r="E43">
-        <v>-0.03749543587646679</v>
+        <v>0.008998346464973802</v>
       </c>
       <c r="F43">
-        <v>-0.007866428657881194</v>
+        <v>0.02989725470722367</v>
       </c>
       <c r="G43">
-        <v>-0.02372731261374547</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02065402763154399</v>
+      </c>
+      <c r="H43">
+        <v>-0.03053311835866503</v>
+      </c>
+      <c r="I43">
+        <v>-0.01862499114747953</v>
+      </c>
+      <c r="J43">
+        <v>-0.01801586131401676</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.03951361867123009</v>
+        <v>0.02924710210485524</v>
       </c>
       <c r="C44">
-        <v>0.05173815278892704</v>
+        <v>-0.04042811474276908</v>
       </c>
       <c r="D44">
-        <v>-0.01814515248401166</v>
+        <v>0.01849926271166836</v>
       </c>
       <c r="E44">
-        <v>-0.1227723474538068</v>
+        <v>0.01113101011403932</v>
       </c>
       <c r="F44">
-        <v>-0.09006191768992176</v>
+        <v>0.1230136869798035</v>
       </c>
       <c r="G44">
-        <v>-0.04114497697424364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06053898317759073</v>
+      </c>
+      <c r="H44">
+        <v>-0.1004656737292709</v>
+      </c>
+      <c r="I44">
+        <v>-0.02615190033000053</v>
+      </c>
+      <c r="J44">
+        <v>-0.02663785074472045</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02757465411346203</v>
+        <v>0.0263017887068692</v>
       </c>
       <c r="C46">
-        <v>0.02181635651067726</v>
+        <v>-0.03359139533111834</v>
       </c>
       <c r="D46">
-        <v>-0.03089617549034908</v>
+        <v>0.01140789558149056</v>
       </c>
       <c r="E46">
-        <v>-0.02579346435061066</v>
+        <v>0.02877474329615543</v>
       </c>
       <c r="F46">
-        <v>-0.02402708161003412</v>
+        <v>0.04624542649529118</v>
       </c>
       <c r="G46">
-        <v>-0.03688338447896771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0255701283751493</v>
+      </c>
+      <c r="H46">
+        <v>-0.05075874522732419</v>
+      </c>
+      <c r="I46">
+        <v>-0.006100849366320167</v>
+      </c>
+      <c r="J46">
+        <v>-0.02226357901268548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08855295583191597</v>
+        <v>0.09225348177562678</v>
       </c>
       <c r="C47">
-        <v>0.01352280928432586</v>
+        <v>-0.01766840751310774</v>
       </c>
       <c r="D47">
-        <v>-0.01601014722918475</v>
+        <v>-0.0009926271751179751</v>
       </c>
       <c r="E47">
-        <v>0.02076087005227069</v>
+        <v>0.02556313373988313</v>
       </c>
       <c r="F47">
-        <v>-0.01048984768320546</v>
+        <v>-0.01154868041236962</v>
       </c>
       <c r="G47">
-        <v>-0.03334249129553839</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04269437490782813</v>
+      </c>
+      <c r="H47">
+        <v>-0.05534104376225054</v>
+      </c>
+      <c r="I47">
+        <v>-0.02138780358665134</v>
+      </c>
+      <c r="J47">
+        <v>-0.02316821335890587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01854666230259537</v>
+        <v>0.01948830558043711</v>
       </c>
       <c r="C48">
-        <v>0.0223304524404138</v>
+        <v>-0.01817415821554548</v>
       </c>
       <c r="D48">
-        <v>-0.01469679539182586</v>
+        <v>0.009093459890000649</v>
       </c>
       <c r="E48">
-        <v>-0.02812282309665659</v>
+        <v>0.01379982462160126</v>
       </c>
       <c r="F48">
-        <v>-0.01028899737171437</v>
+        <v>0.0305932798188569</v>
       </c>
       <c r="G48">
-        <v>-0.01151975096641981</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01514838950337512</v>
+      </c>
+      <c r="H48">
+        <v>-0.02053623823059854</v>
+      </c>
+      <c r="I48">
+        <v>-0.01555195005396517</v>
+      </c>
+      <c r="J48">
+        <v>-0.01266861346554838</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.09069812827012431</v>
+        <v>0.08960523266928586</v>
       </c>
       <c r="C50">
-        <v>0.042169318428027</v>
+        <v>-0.03271468880019057</v>
       </c>
       <c r="D50">
-        <v>-0.02450064380609522</v>
+        <v>0.02319088250296441</v>
       </c>
       <c r="E50">
-        <v>0.01288723772822486</v>
+        <v>0.02423877346296404</v>
       </c>
       <c r="F50">
-        <v>0.002803596042682259</v>
+        <v>-0.003868689604540088</v>
       </c>
       <c r="G50">
-        <v>-0.04292115480650278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001277729876550553</v>
+      </c>
+      <c r="H50">
+        <v>-0.03816552880455405</v>
+      </c>
+      <c r="I50">
+        <v>0.00791866265934847</v>
+      </c>
+      <c r="J50">
+        <v>-0.01025114589851029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.0593566021050052</v>
+        <v>0.04497190633804644</v>
       </c>
       <c r="C51">
-        <v>-0.02101855592795913</v>
+        <v>-0.0004410250059175686</v>
       </c>
       <c r="D51">
-        <v>0.006814493602694197</v>
+        <v>-0.01554669288717639</v>
       </c>
       <c r="E51">
-        <v>-0.08459772407374007</v>
+        <v>0.009084932884939577</v>
       </c>
       <c r="F51">
-        <v>-0.04814244126243862</v>
+        <v>0.0929265080722301</v>
       </c>
       <c r="G51">
-        <v>-0.07491309293436266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05141284378155611</v>
+      </c>
+      <c r="H51">
+        <v>-0.05392932225321207</v>
+      </c>
+      <c r="I51">
+        <v>-0.03888762230220287</v>
+      </c>
+      <c r="J51">
+        <v>-0.03896172495112777</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1445120640647714</v>
+        <v>0.1264444561425146</v>
       </c>
       <c r="C53">
-        <v>0.01347573343526587</v>
+        <v>-0.03475491873899639</v>
       </c>
       <c r="D53">
-        <v>-0.04861895030094723</v>
+        <v>0.004582293013249113</v>
       </c>
       <c r="E53">
-        <v>0.04874517750660834</v>
+        <v>0.04929746238879391</v>
       </c>
       <c r="F53">
-        <v>0.007169879565944181</v>
+        <v>-0.04021207130422959</v>
       </c>
       <c r="G53">
-        <v>-0.03699133604388075</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02309791374575195</v>
+      </c>
+      <c r="H53">
+        <v>0.001305572763753618</v>
+      </c>
+      <c r="I53">
+        <v>-0.03958659280881383</v>
+      </c>
+      <c r="J53">
+        <v>-0.02735715426767731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02767723861132024</v>
+        <v>0.0261648454932676</v>
       </c>
       <c r="C54">
-        <v>0.004978502392955807</v>
+        <v>-0.001409955322652814</v>
       </c>
       <c r="D54">
-        <v>-0.02750914461831346</v>
+        <v>0.005242010431843595</v>
       </c>
       <c r="E54">
-        <v>-0.0341450454819082</v>
+        <v>0.02726226148053508</v>
       </c>
       <c r="F54">
-        <v>-0.05013971976916455</v>
+        <v>0.03758358922275787</v>
       </c>
       <c r="G54">
-        <v>-0.02319309226293928</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0516765226554035</v>
+      </c>
+      <c r="H54">
+        <v>-0.04188977957937366</v>
+      </c>
+      <c r="I54">
+        <v>-0.02912614057861176</v>
+      </c>
+      <c r="J54">
+        <v>0.009304126631258519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09856722597819605</v>
+        <v>0.1009414933107345</v>
       </c>
       <c r="C55">
-        <v>-0.0006125266260339164</v>
+        <v>-0.01547281118793587</v>
       </c>
       <c r="D55">
-        <v>-0.03847425490704754</v>
+        <v>0.01618555800656312</v>
       </c>
       <c r="E55">
-        <v>0.010649050364585</v>
+        <v>0.03211801002761652</v>
       </c>
       <c r="F55">
-        <v>0.03374545692709655</v>
+        <v>-0.02882460555668579</v>
       </c>
       <c r="G55">
-        <v>0.007433153950515009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005371993055671563</v>
+      </c>
+      <c r="H55">
+        <v>-0.01388727118760774</v>
+      </c>
+      <c r="I55">
+        <v>-0.0214443308171047</v>
+      </c>
+      <c r="J55">
+        <v>-0.02671026515642704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1789998485201739</v>
+        <v>0.1683284494918448</v>
       </c>
       <c r="C56">
-        <v>-0.0100809108640865</v>
+        <v>-0.01353632289670179</v>
       </c>
       <c r="D56">
-        <v>-0.08740397862007021</v>
+        <v>0.003302955517123562</v>
       </c>
       <c r="E56">
-        <v>0.09582256037891504</v>
+        <v>0.0848700940598781</v>
       </c>
       <c r="F56">
-        <v>0.08033220001931965</v>
+        <v>-0.08706263317401307</v>
       </c>
       <c r="G56">
-        <v>-0.001020490292738732</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02659430206815991</v>
+      </c>
+      <c r="H56">
+        <v>0.04287304180718731</v>
+      </c>
+      <c r="I56">
+        <v>-0.03360323771557712</v>
+      </c>
+      <c r="J56">
+        <v>-0.03622030538788532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09177292433008588</v>
+        <v>0.06977757014893055</v>
       </c>
       <c r="C57">
-        <v>0.03109990389612117</v>
+        <v>-0.03874982048347606</v>
       </c>
       <c r="D57">
-        <v>-0.03363048569327328</v>
+        <v>-0.004392826792035344</v>
       </c>
       <c r="E57">
-        <v>-0.03681607781130685</v>
+        <v>0.01252893658629019</v>
       </c>
       <c r="F57">
-        <v>-0.02900290579033395</v>
+        <v>0.06005902497367179</v>
       </c>
       <c r="G57">
-        <v>-0.047785116231914</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02501556996553694</v>
+      </c>
+      <c r="H57">
+        <v>-0.02856946001585091</v>
+      </c>
+      <c r="I57">
+        <v>-0.0001670269997128869</v>
+      </c>
+      <c r="J57">
+        <v>-0.04042271802285045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1777472644550882</v>
+        <v>0.2044438378071671</v>
       </c>
       <c r="C58">
-        <v>0.03042931793950974</v>
+        <v>-0.1259008080292408</v>
       </c>
       <c r="D58">
-        <v>0.02599836573286788</v>
+        <v>-0.04811845597380307</v>
       </c>
       <c r="E58">
-        <v>-0.1253189058795963</v>
+        <v>-0.008839358329960063</v>
       </c>
       <c r="F58">
-        <v>0.0594735631936622</v>
+        <v>0.2415080646201906</v>
       </c>
       <c r="G58">
-        <v>-0.04203458155525749</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1660114250229644</v>
+      </c>
+      <c r="H58">
+        <v>-0.3680626189227912</v>
+      </c>
+      <c r="I58">
+        <v>0.2715003454277911</v>
+      </c>
+      <c r="J58">
+        <v>0.7243040337108395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.02106725549685618</v>
+        <v>0.04312627014118989</v>
       </c>
       <c r="C59">
-        <v>-0.1994165152349869</v>
+        <v>0.1733980643664554</v>
       </c>
       <c r="D59">
-        <v>-0.001840263424681289</v>
+        <v>-0.09717865066178796</v>
       </c>
       <c r="E59">
-        <v>-0.06650541480036334</v>
+        <v>-0.005069661810424337</v>
       </c>
       <c r="F59">
-        <v>-0.01511292992997747</v>
+        <v>0.07413648102735833</v>
       </c>
       <c r="G59">
-        <v>-0.008806894529017574</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.004001242057194849</v>
+      </c>
+      <c r="H59">
+        <v>0.01971416043269598</v>
+      </c>
+      <c r="I59">
+        <v>-0.05734555020445708</v>
+      </c>
+      <c r="J59">
+        <v>0.02356906256723363</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1913284331568141</v>
+        <v>0.18544924473264</v>
       </c>
       <c r="C60">
-        <v>-0.09292256132662381</v>
+        <v>0.02488642066023575</v>
       </c>
       <c r="D60">
-        <v>-0.003430118472475044</v>
+        <v>-0.06834003040360992</v>
       </c>
       <c r="E60">
-        <v>-0.1887455968240853</v>
+        <v>0.01243097231783266</v>
       </c>
       <c r="F60">
-        <v>-0.04876893261251981</v>
+        <v>0.2049773857429184</v>
       </c>
       <c r="G60">
-        <v>8.353525268045508e-05</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07538707204232029</v>
+      </c>
+      <c r="H60">
+        <v>0.2751311673659756</v>
+      </c>
+      <c r="I60">
+        <v>0.09254488814955703</v>
+      </c>
+      <c r="J60">
+        <v>-0.0387656396695777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.0487340252579883</v>
+        <v>0.03953272742951989</v>
       </c>
       <c r="C61">
-        <v>0.006984026664660252</v>
+        <v>-0.02359200495931214</v>
       </c>
       <c r="D61">
-        <v>-0.0001154784964142991</v>
+        <v>0.009928353261297387</v>
       </c>
       <c r="E61">
-        <v>-0.03954298953908441</v>
+        <v>0.006255097801728072</v>
       </c>
       <c r="F61">
-        <v>-0.006351312360332247</v>
+        <v>0.03890983580811631</v>
       </c>
       <c r="G61">
-        <v>-0.01046233125597466</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008889418782079045</v>
+      </c>
+      <c r="H61">
+        <v>0.001491269805458134</v>
+      </c>
+      <c r="I61">
+        <v>0.03032876761455044</v>
+      </c>
+      <c r="J61">
+        <v>-0.02900858288878557</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04550284140714245</v>
+        <v>0.03142262612424154</v>
       </c>
       <c r="C63">
-        <v>0.00872440812275376</v>
+        <v>-0.01748542603604515</v>
       </c>
       <c r="D63">
-        <v>-0.0202025383906605</v>
+        <v>0.005308199369425983</v>
       </c>
       <c r="E63">
-        <v>-0.03673391546076109</v>
+        <v>0.0139677635927361</v>
       </c>
       <c r="F63">
-        <v>-0.006043490511631627</v>
+        <v>0.02922149316608949</v>
       </c>
       <c r="G63">
-        <v>-0.03420597154732891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01154968479225889</v>
+      </c>
+      <c r="H63">
+        <v>-0.04902778937525153</v>
+      </c>
+      <c r="I63">
+        <v>-0.04161844039293915</v>
+      </c>
+      <c r="J63">
+        <v>-0.02869867425975844</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.07922604691818794</v>
+        <v>0.05781905903767198</v>
       </c>
       <c r="C64">
-        <v>0.0528235055519378</v>
+        <v>-0.03864117814202176</v>
       </c>
       <c r="D64">
-        <v>-0.06509113356363555</v>
+        <v>0.03073239537985661</v>
       </c>
       <c r="E64">
-        <v>-0.06110595474815653</v>
+        <v>0.04537485241731311</v>
       </c>
       <c r="F64">
-        <v>-0.0586119189969727</v>
+        <v>0.05070312537624313</v>
       </c>
       <c r="G64">
-        <v>0.02012804489939328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05350127489473314</v>
+      </c>
+      <c r="H64">
+        <v>0.009025169807226407</v>
+      </c>
+      <c r="I64">
+        <v>-0.05088454723455525</v>
+      </c>
+      <c r="J64">
+        <v>-0.09748817471306297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01994243139811817</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.007759405387655708</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01006947052765981</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.006123847800742779</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001064109716139528</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02159360957158643</v>
+      </c>
+      <c r="H65">
+        <v>0.003138560663509836</v>
+      </c>
+      <c r="I65">
+        <v>0.01309501414714675</v>
+      </c>
+      <c r="J65">
+        <v>-0.004648629001485906</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.08913347286358207</v>
+        <v>0.06821727030081673</v>
       </c>
       <c r="C66">
-        <v>0.03155091482120075</v>
+        <v>-0.05472749148770447</v>
       </c>
       <c r="D66">
-        <v>-0.03687787566521522</v>
+        <v>0.007133181678447258</v>
       </c>
       <c r="E66">
-        <v>-0.0797984085275641</v>
+        <v>0.0455154403011335</v>
       </c>
       <c r="F66">
-        <v>-0.04086334260821847</v>
+        <v>0.06986062990560171</v>
       </c>
       <c r="G66">
-        <v>-0.01887051424196528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01477171001159921</v>
+      </c>
+      <c r="H66">
+        <v>0.0001382017053440943</v>
+      </c>
+      <c r="I66">
+        <v>0.02677488923496936</v>
+      </c>
+      <c r="J66">
+        <v>-0.07697128719741014</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06556422498377344</v>
+        <v>0.04738914708113101</v>
       </c>
       <c r="C67">
-        <v>-0.009254231489555197</v>
+        <v>0.001219361502609098</v>
       </c>
       <c r="D67">
-        <v>-0.01376812219280245</v>
+        <v>-0.003014660481629847</v>
       </c>
       <c r="E67">
-        <v>-0.02698097901384544</v>
+        <v>0.01025308940754526</v>
       </c>
       <c r="F67">
-        <v>-0.006616277865559281</v>
+        <v>0.03938239397546227</v>
       </c>
       <c r="G67">
-        <v>0.03224047489084488</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03462106470515899</v>
+      </c>
+      <c r="H67">
+        <v>0.008367353507019334</v>
+      </c>
+      <c r="I67">
+        <v>0.03757043571149075</v>
+      </c>
+      <c r="J67">
+        <v>-0.01796066848144442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.02386781542108764</v>
+        <v>0.05110950594696557</v>
       </c>
       <c r="C68">
-        <v>-0.2417818172668693</v>
+        <v>0.2089371138520824</v>
       </c>
       <c r="D68">
-        <v>0.01664269660404495</v>
+        <v>-0.109739973734587</v>
       </c>
       <c r="E68">
-        <v>-0.04686107558570407</v>
+        <v>-0.02009898649280621</v>
       </c>
       <c r="F68">
-        <v>-0.009252434324733314</v>
+        <v>0.0560741339046814</v>
       </c>
       <c r="G68">
-        <v>-0.02652988439408741</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.002322434652082444</v>
+      </c>
+      <c r="H68">
+        <v>0.01671487665914528</v>
+      </c>
+      <c r="I68">
+        <v>-0.152174236749537</v>
+      </c>
+      <c r="J68">
+        <v>0.09313793740150822</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07241517561294761</v>
+        <v>0.07234450990827351</v>
       </c>
       <c r="C69">
-        <v>0.01614051701362515</v>
+        <v>-0.02166615655783014</v>
       </c>
       <c r="D69">
-        <v>-0.02473470745257393</v>
+        <v>0.001059886379869379</v>
       </c>
       <c r="E69">
-        <v>0.0188208657784431</v>
+        <v>0.03157699787496538</v>
       </c>
       <c r="F69">
-        <v>-0.0002247844724834585</v>
+        <v>-0.002045816442386326</v>
       </c>
       <c r="G69">
-        <v>-0.03456460776727836</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02673696384386845</v>
+      </c>
+      <c r="H69">
+        <v>-0.02660245031159656</v>
+      </c>
+      <c r="I69">
+        <v>-0.001372783508444957</v>
+      </c>
+      <c r="J69">
+        <v>-0.03009513608874519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.01844321878015629</v>
+        <v>0.05271214755518072</v>
       </c>
       <c r="C71">
-        <v>-0.2757069684037611</v>
+        <v>0.2234612927848545</v>
       </c>
       <c r="D71">
-        <v>0.02157392828833538</v>
+        <v>-0.1226385459779492</v>
       </c>
       <c r="E71">
-        <v>-0.08378185907137706</v>
+        <v>-0.04150411898774942</v>
       </c>
       <c r="F71">
-        <v>-0.01636674806478672</v>
+        <v>0.07888692251629685</v>
       </c>
       <c r="G71">
-        <v>-0.03445573365434897</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01367887367719827</v>
+      </c>
+      <c r="H71">
+        <v>0.02470659483575434</v>
+      </c>
+      <c r="I71">
+        <v>-0.123085522232389</v>
+      </c>
+      <c r="J71">
+        <v>0.04923073987716178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1153755461407437</v>
+        <v>0.124125000408172</v>
       </c>
       <c r="C72">
-        <v>-0.001408265544696895</v>
+        <v>-0.03005688424567748</v>
       </c>
       <c r="D72">
-        <v>-0.04799548878297052</v>
+        <v>0.001273104592342702</v>
       </c>
       <c r="E72">
-        <v>-0.09738409226018668</v>
+        <v>0.06155551823213726</v>
       </c>
       <c r="F72">
-        <v>0.010854620998404</v>
+        <v>0.08253825183258465</v>
       </c>
       <c r="G72">
-        <v>0.01589487111996008</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04027770783742818</v>
+      </c>
+      <c r="H72">
+        <v>0.01509621698419971</v>
+      </c>
+      <c r="I72">
+        <v>0.08130090631600119</v>
+      </c>
+      <c r="J72">
+        <v>0.07676344555989456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2950325595819347</v>
+        <v>0.2691974073900176</v>
       </c>
       <c r="C73">
-        <v>-0.1624122735257501</v>
+        <v>0.03987803671976326</v>
       </c>
       <c r="D73">
-        <v>0.05289831520001699</v>
+        <v>-0.1232295848527819</v>
       </c>
       <c r="E73">
-        <v>-0.3364067584427217</v>
+        <v>-0.03329922645827086</v>
       </c>
       <c r="F73">
-        <v>-0.03104758910330344</v>
+        <v>0.3055567115286577</v>
       </c>
       <c r="G73">
-        <v>0.05211572509343953</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1794770442309085</v>
+      </c>
+      <c r="H73">
+        <v>0.471313176070183</v>
+      </c>
+      <c r="I73">
+        <v>0.2833589871640789</v>
+      </c>
+      <c r="J73">
+        <v>-0.07935352839460159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1648772129154627</v>
+        <v>0.1518841091987571</v>
       </c>
       <c r="C74">
-        <v>0.002319987605386204</v>
+        <v>-0.02695082410880853</v>
       </c>
       <c r="D74">
-        <v>-0.04442673640538019</v>
+        <v>-0.006578084376595351</v>
       </c>
       <c r="E74">
-        <v>0.01879044375336627</v>
+        <v>0.04812832324410812</v>
       </c>
       <c r="F74">
-        <v>0.06186389314676159</v>
+        <v>-0.05402290101871143</v>
       </c>
       <c r="G74">
-        <v>-0.05217399394892106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01750126640997995</v>
+      </c>
+      <c r="H74">
+        <v>0.02855381293332157</v>
+      </c>
+      <c r="I74">
+        <v>-0.02812310828259213</v>
+      </c>
+      <c r="J74">
+        <v>-0.08166283832472636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2338710647657264</v>
+        <v>0.2435196815009221</v>
       </c>
       <c r="C75">
-        <v>-0.0009129742176330294</v>
+        <v>-0.0278173962057323</v>
       </c>
       <c r="D75">
-        <v>-0.07086819253258826</v>
+        <v>-0.02274597630474573</v>
       </c>
       <c r="E75">
-        <v>0.1228738501789335</v>
+        <v>0.1051826000309332</v>
       </c>
       <c r="F75">
-        <v>0.03670053764104121</v>
+        <v>-0.1477783166081866</v>
       </c>
       <c r="G75">
-        <v>-0.04276439763349655</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.005106808422384776</v>
+      </c>
+      <c r="H75">
+        <v>0.01875524136748792</v>
+      </c>
+      <c r="I75">
+        <v>-0.09006935661720877</v>
+      </c>
+      <c r="J75">
+        <v>-0.00664328843196309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2418790953091666</v>
+        <v>0.2651091918860033</v>
       </c>
       <c r="C76">
-        <v>-0.01103396990882055</v>
+        <v>-0.009369960241679132</v>
       </c>
       <c r="D76">
-        <v>-0.1139042424367122</v>
+        <v>0.01118548995681495</v>
       </c>
       <c r="E76">
-        <v>0.1297034480717048</v>
+        <v>0.1270182452760244</v>
       </c>
       <c r="F76">
-        <v>0.07734497605499144</v>
+        <v>-0.1818501363102108</v>
       </c>
       <c r="G76">
-        <v>-0.03696267060270948</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05183861603235503</v>
+      </c>
+      <c r="H76">
+        <v>0.04219032464905524</v>
+      </c>
+      <c r="I76">
+        <v>-0.03039580165550675</v>
+      </c>
+      <c r="J76">
+        <v>-0.05820712452740841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1311053033705224</v>
+        <v>0.1277040710659971</v>
       </c>
       <c r="C77">
-        <v>0.04401204207196487</v>
+        <v>-0.06250001700196831</v>
       </c>
       <c r="D77">
-        <v>0.03920736439933304</v>
+        <v>0.01373783627942743</v>
       </c>
       <c r="E77">
-        <v>-0.1397695785645401</v>
+        <v>-0.03043230534036957</v>
       </c>
       <c r="F77">
-        <v>-0.03413398189477617</v>
+        <v>0.1624381386416106</v>
       </c>
       <c r="G77">
-        <v>0.05274549287243952</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.003205786970671843</v>
+      </c>
+      <c r="H77">
+        <v>-0.2210456097193624</v>
+      </c>
+      <c r="I77">
+        <v>-0.2313942439545204</v>
+      </c>
+      <c r="J77">
+        <v>-0.06651381350071228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08253707776486194</v>
+        <v>0.08067530675973894</v>
       </c>
       <c r="C78">
-        <v>0.04908990637886654</v>
+        <v>-0.06848451425088063</v>
       </c>
       <c r="D78">
-        <v>0.01350512104246929</v>
+        <v>0.03344884405087813</v>
       </c>
       <c r="E78">
-        <v>-0.04785710558067956</v>
+        <v>0.01003323734168416</v>
       </c>
       <c r="F78">
-        <v>-0.009919722076325304</v>
+        <v>0.07258111187450159</v>
       </c>
       <c r="G78">
-        <v>-0.01658237063556811</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01203831465254117</v>
+      </c>
+      <c r="H78">
+        <v>-0.02370397610190519</v>
+      </c>
+      <c r="I78">
+        <v>-0.03499235691865981</v>
+      </c>
+      <c r="J78">
+        <v>-0.0412867697034288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07113163904150199</v>
+        <v>0.1539381492336223</v>
       </c>
       <c r="C80">
-        <v>0.018730469097279</v>
+        <v>0.4254321037334277</v>
       </c>
       <c r="D80">
-        <v>0.0377849006120627</v>
+        <v>0.8743563363049695</v>
       </c>
       <c r="E80">
-        <v>0.03305001481105503</v>
+        <v>-0.05530984171948981</v>
       </c>
       <c r="F80">
-        <v>0.1379145831526233</v>
+        <v>0.05121980841323822</v>
       </c>
       <c r="G80">
-        <v>0.9339834490033002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04432846824698731</v>
+      </c>
+      <c r="H80">
+        <v>0.05378447362712852</v>
+      </c>
+      <c r="I80">
+        <v>0.04483949011996838</v>
+      </c>
+      <c r="J80">
+        <v>0.09393570298595746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1686306246108771</v>
+        <v>0.1802450777385553</v>
       </c>
       <c r="C81">
-        <v>-0.007173847361733043</v>
+        <v>-0.007914472130810977</v>
       </c>
       <c r="D81">
-        <v>-0.06417323920090195</v>
+        <v>-0.006633323695283423</v>
       </c>
       <c r="E81">
-        <v>0.1606380845047617</v>
+        <v>0.08571826065376416</v>
       </c>
       <c r="F81">
-        <v>0.1030525004015664</v>
+        <v>-0.1628832053363925</v>
       </c>
       <c r="G81">
-        <v>-0.03500608767929467</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02977039104820692</v>
+      </c>
+      <c r="H81">
+        <v>0.01025777846735686</v>
+      </c>
+      <c r="I81">
+        <v>-0.05545342669777631</v>
+      </c>
+      <c r="J81">
+        <v>0.001551458157733856</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09330406210073484</v>
+        <v>0.06910616803588553</v>
       </c>
       <c r="C83">
-        <v>0.05847139294815484</v>
+        <v>-0.05306074268441651</v>
       </c>
       <c r="D83">
-        <v>0.06738416694314774</v>
+        <v>0.006259712790949758</v>
       </c>
       <c r="E83">
-        <v>-0.007344905614724096</v>
+        <v>-0.03646785660807762</v>
       </c>
       <c r="F83">
-        <v>-0.05928149442329897</v>
+        <v>0.0457761542298696</v>
       </c>
       <c r="G83">
-        <v>-0.03580579230690098</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05952871722720104</v>
+      </c>
+      <c r="H83">
+        <v>-0.02128777674706969</v>
+      </c>
+      <c r="I83">
+        <v>-0.03669855189535904</v>
+      </c>
+      <c r="J83">
+        <v>-0.07388794519036539</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2343919081123419</v>
+        <v>0.2500379924296602</v>
       </c>
       <c r="C85">
-        <v>0.05258649720804704</v>
+        <v>-0.04954182062679197</v>
       </c>
       <c r="D85">
-        <v>-0.06300745045696328</v>
+        <v>0.0107851812715821</v>
       </c>
       <c r="E85">
-        <v>0.159916900329559</v>
+        <v>0.09111031390672025</v>
       </c>
       <c r="F85">
-        <v>0.06237986680282992</v>
+        <v>-0.1857237147012252</v>
       </c>
       <c r="G85">
-        <v>-0.01162365889326637</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.003989524003237419</v>
+      </c>
+      <c r="H85">
+        <v>-0.02004676858131424</v>
+      </c>
+      <c r="I85">
+        <v>-0.05973461631516925</v>
+      </c>
+      <c r="J85">
+        <v>-0.06082607759058103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04131257343649969</v>
+        <v>0.02597399978983006</v>
       </c>
       <c r="C86">
-        <v>0.05170001820777773</v>
+        <v>-0.06087781999654882</v>
       </c>
       <c r="D86">
-        <v>-0.01700810234541829</v>
+        <v>0.02737723567676604</v>
       </c>
       <c r="E86">
-        <v>-0.06363045414277269</v>
+        <v>0.01317823960614764</v>
       </c>
       <c r="F86">
-        <v>0.003466178149788038</v>
+        <v>0.06846198521220606</v>
       </c>
       <c r="G86">
-        <v>-0.03185698810818704</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.00579793553718832</v>
+      </c>
+      <c r="H86">
+        <v>-0.06521003928925459</v>
+      </c>
+      <c r="I86">
+        <v>-0.03529290151452693</v>
+      </c>
+      <c r="J86">
+        <v>-0.03626598081832098</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02603481340425107</v>
+        <v>0.03553491378976899</v>
       </c>
       <c r="C87">
-        <v>-0.04962266620907638</v>
+        <v>0.009705914355478511</v>
       </c>
       <c r="D87">
-        <v>-0.001382415257830998</v>
+        <v>-0.009323262111154024</v>
       </c>
       <c r="E87">
-        <v>-0.09247664899209156</v>
+        <v>0.004824874628836064</v>
       </c>
       <c r="F87">
-        <v>0.0227873351935111</v>
+        <v>0.1001523737509009</v>
       </c>
       <c r="G87">
-        <v>-0.02265484884348961</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02369325163915725</v>
+      </c>
+      <c r="H87">
+        <v>-0.01609834802351677</v>
+      </c>
+      <c r="I87">
+        <v>0.01629229994975647</v>
+      </c>
+      <c r="J87">
+        <v>-0.02052254423125047</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03923966176422081</v>
+        <v>0.03010157401904114</v>
       </c>
       <c r="C88">
-        <v>0.03796164295480346</v>
+        <v>-0.01916826739384332</v>
       </c>
       <c r="D88">
-        <v>-0.008827514401581193</v>
+        <v>0.02066957140480592</v>
       </c>
       <c r="E88">
-        <v>0.01494075065386529</v>
+        <v>0.01513433304330102</v>
       </c>
       <c r="F88">
-        <v>0.01696270976850105</v>
+        <v>-0.01647034739173282</v>
       </c>
       <c r="G88">
-        <v>-0.01239646719608681</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03281261711221786</v>
+      </c>
+      <c r="H88">
+        <v>-0.03728076737045506</v>
+      </c>
+      <c r="I88">
+        <v>0.01816074350201618</v>
+      </c>
+      <c r="J88">
+        <v>-0.0288595694745797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.01524320968919381</v>
+        <v>0.07050786507686431</v>
       </c>
       <c r="C89">
-        <v>-0.4106073900491382</v>
+        <v>0.3418554862800196</v>
       </c>
       <c r="D89">
-        <v>0.1063318850920813</v>
+        <v>-0.1961179987427166</v>
       </c>
       <c r="E89">
-        <v>-0.003980772030751307</v>
+        <v>-0.06602426191859605</v>
       </c>
       <c r="F89">
-        <v>-0.02487943410086565</v>
+        <v>0.04113126735807055</v>
       </c>
       <c r="G89">
-        <v>-0.04990582410329703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04233200679038222</v>
+      </c>
+      <c r="H89">
+        <v>-0.05084400353761663</v>
+      </c>
+      <c r="I89">
+        <v>-0.2488343545173679</v>
+      </c>
+      <c r="J89">
+        <v>0.1097780278499217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.01979072377884796</v>
+        <v>0.05122480888388648</v>
       </c>
       <c r="C90">
-        <v>-0.3051569175538335</v>
+        <v>0.297053164283927</v>
       </c>
       <c r="D90">
-        <v>0.04569327917612639</v>
+        <v>-0.1514176374583779</v>
       </c>
       <c r="E90">
-        <v>-0.04546704964576218</v>
+        <v>-0.04947892196145154</v>
       </c>
       <c r="F90">
-        <v>-0.02111474575904322</v>
+        <v>0.03670288953234471</v>
       </c>
       <c r="G90">
-        <v>-0.04437091777853266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02220981213428339</v>
+      </c>
+      <c r="H90">
+        <v>-0.01071040522148452</v>
+      </c>
+      <c r="I90">
+        <v>-0.2169272197534148</v>
+      </c>
+      <c r="J90">
+        <v>0.07650651670034556</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2794551047764781</v>
+        <v>0.2973059706102474</v>
       </c>
       <c r="C91">
-        <v>0.02763812086472401</v>
+        <v>-0.04048331550232351</v>
       </c>
       <c r="D91">
-        <v>-0.07575597897821203</v>
+        <v>-0.004542813474220163</v>
       </c>
       <c r="E91">
-        <v>0.287718377589644</v>
+        <v>0.08834238821984255</v>
       </c>
       <c r="F91">
-        <v>0.1013943566974275</v>
+        <v>-0.2902037590647903</v>
       </c>
       <c r="G91">
-        <v>0.02829418411830173</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02275785522313889</v>
+      </c>
+      <c r="H91">
+        <v>0.007911825101143985</v>
+      </c>
+      <c r="I91">
+        <v>-0.1164412882305105</v>
+      </c>
+      <c r="J91">
+        <v>-0.03352704702315495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.03446045089263531</v>
+        <v>0.1090573054895938</v>
       </c>
       <c r="C92">
-        <v>-0.4126991759167335</v>
+        <v>0.3928826167372909</v>
       </c>
       <c r="D92">
-        <v>0.1684344688256326</v>
+        <v>-0.1738531901620745</v>
       </c>
       <c r="E92">
-        <v>0.1246378410094295</v>
+        <v>-0.08932928920176415</v>
       </c>
       <c r="F92">
-        <v>0.06097887559898565</v>
+        <v>-0.1168240427490934</v>
       </c>
       <c r="G92">
-        <v>0.1165681944638955</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.08323156787675672</v>
+      </c>
+      <c r="H92">
+        <v>-0.4441872605279733</v>
+      </c>
+      <c r="I92">
+        <v>0.6267066120009657</v>
+      </c>
+      <c r="J92">
+        <v>-0.3968141700714522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.005418757739156638</v>
+        <v>0.05690659343743637</v>
       </c>
       <c r="C93">
-        <v>-0.3718865339441714</v>
+        <v>0.3532534113127915</v>
       </c>
       <c r="D93">
-        <v>0.08033635602015249</v>
+        <v>-0.1956753740820557</v>
       </c>
       <c r="E93">
-        <v>0.02251219842622141</v>
+        <v>-0.08307679708488988</v>
       </c>
       <c r="F93">
-        <v>0.0003682989865806821</v>
+        <v>0.005416125656395269</v>
       </c>
       <c r="G93">
-        <v>0.02900267489521395</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03470030352419751</v>
+      </c>
+      <c r="H93">
+        <v>0.01870851734707302</v>
+      </c>
+      <c r="I93">
+        <v>-0.1483574475348446</v>
+      </c>
+      <c r="J93">
+        <v>0.09063123383495532</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2750249755146675</v>
+        <v>0.3053281384528846</v>
       </c>
       <c r="C94">
-        <v>-0.07245195926070629</v>
+        <v>-0.001070418396394163</v>
       </c>
       <c r="D94">
-        <v>-0.04500138315160358</v>
+        <v>-0.04734591206311462</v>
       </c>
       <c r="E94">
-        <v>0.3449391968159392</v>
+        <v>0.1276543465867574</v>
       </c>
       <c r="F94">
-        <v>0.4071715182259299</v>
+        <v>-0.343377119442548</v>
       </c>
       <c r="G94">
-        <v>-0.1349709924856292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2097248337301944</v>
+      </c>
+      <c r="H94">
+        <v>-0.1321109972083956</v>
+      </c>
+      <c r="I94">
+        <v>-0.0104364483548897</v>
+      </c>
+      <c r="J94">
+        <v>0.1610430307313605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1966034733170482</v>
+        <v>0.1302205975291012</v>
       </c>
       <c r="C95">
-        <v>-0.01900267065250994</v>
+        <v>-0.07581858558233665</v>
       </c>
       <c r="D95">
-        <v>-0.003119092136302691</v>
+        <v>-0.07349625868429674</v>
       </c>
       <c r="E95">
-        <v>0.38630375324677</v>
+        <v>0.0383143988016622</v>
       </c>
       <c r="F95">
-        <v>-0.8380548189784849</v>
+        <v>-0.07348213385112519</v>
       </c>
       <c r="G95">
-        <v>0.09199591474767044</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8962159348792418</v>
+      </c>
+      <c r="H95">
+        <v>0.1693872017728814</v>
+      </c>
+      <c r="I95">
+        <v>0.1464547022053464</v>
+      </c>
+      <c r="J95">
+        <v>0.2394852945871401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2250255985582782</v>
+        <v>0.207159103529502</v>
       </c>
       <c r="C98">
-        <v>-0.1160745477683374</v>
+        <v>0.03133178313627454</v>
       </c>
       <c r="D98">
-        <v>0.04908237176906557</v>
+        <v>-0.0874219634079596</v>
       </c>
       <c r="E98">
-        <v>-0.09048419366157275</v>
+        <v>-0.03168676666307209</v>
       </c>
       <c r="F98">
-        <v>-0.04336489633155451</v>
+        <v>0.1562596726081484</v>
       </c>
       <c r="G98">
-        <v>-0.03550443619283165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08494265682914713</v>
+      </c>
+      <c r="H98">
+        <v>0.3203599603168168</v>
+      </c>
+      <c r="I98">
+        <v>0.1632914933630937</v>
+      </c>
+      <c r="J98">
+        <v>0.009364407759722262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02186674357008679</v>
+        <v>0.01657168261887262</v>
       </c>
       <c r="C101">
-        <v>0.02294480429079638</v>
+        <v>-0.02770522450596681</v>
       </c>
       <c r="D101">
-        <v>-0.03312690674695453</v>
+        <v>0.01791594810609676</v>
       </c>
       <c r="E101">
-        <v>-0.0291473089843282</v>
+        <v>0.03436307782060475</v>
       </c>
       <c r="F101">
-        <v>-0.01532380520876944</v>
+        <v>0.06610280563718277</v>
       </c>
       <c r="G101">
-        <v>-0.03084431795397374</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01566099728607292</v>
+      </c>
+      <c r="H101">
+        <v>-0.1097309897779877</v>
+      </c>
+      <c r="I101">
+        <v>0.05891084607142481</v>
+      </c>
+      <c r="J101">
+        <v>0.09801645867612978</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1189680288299539</v>
+        <v>0.119732041226025</v>
       </c>
       <c r="C102">
-        <v>0.01739496061951296</v>
+        <v>-0.02010547452166821</v>
       </c>
       <c r="D102">
-        <v>-0.04152812183581247</v>
+        <v>0.01030460172925798</v>
       </c>
       <c r="E102">
-        <v>0.08748151075620759</v>
+        <v>0.05400830040190805</v>
       </c>
       <c r="F102">
-        <v>0.007290111012657127</v>
+        <v>-0.09713909469328573</v>
       </c>
       <c r="G102">
-        <v>0.007904225199917694</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01708105790185335</v>
+      </c>
+      <c r="H102">
+        <v>0.02081172093822338</v>
+      </c>
+      <c r="I102">
+        <v>-0.0586256710649753</v>
+      </c>
+      <c r="J102">
+        <v>-0.03189293712702911</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01775931987961156</v>
+        <v>0.03211607187265879</v>
       </c>
       <c r="C103">
-        <v>-0.0009566497848845592</v>
+        <v>-0.002025078536222887</v>
       </c>
       <c r="D103">
-        <v>-0.01304370949151881</v>
+        <v>0.009454085758702158</v>
       </c>
       <c r="E103">
-        <v>0.02991997280904357</v>
+        <v>0.0214472502080375</v>
       </c>
       <c r="F103">
-        <v>0.01196399988563397</v>
+        <v>-0.02871484572001188</v>
       </c>
       <c r="G103">
-        <v>-0.01363778978237592</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0140198772412321</v>
+      </c>
+      <c r="H103">
+        <v>-0.0159337785848329</v>
+      </c>
+      <c r="I103">
+        <v>-0.03350250654710224</v>
+      </c>
+      <c r="J103">
+        <v>-0.003199988225099792</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
